--- a/pequenos-medios-de-generacion-distribuida_v1_netbilling.xlsx
+++ b/pequenos-medios-de-generacion-distribuida_v1_netbilling.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E329"/>
+  <dimension ref="A1:E330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,7 +497,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>15.5</t>
+          <t>20.5</t>
         </is>
       </c>
     </row>
@@ -578,7 +578,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>268.71</t>
+          <t>275.21</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>261.17</t>
+          <t>263.17</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>16.2</t>
         </is>
       </c>
     </row>
@@ -875,7 +875,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>998.86</t>
+          <t>1101.38</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>417.5</t>
+          <t>418.25</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>484.49</t>
+          <t>488.54</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3988.64</t>
+          <t>3993.64</t>
         </is>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>7.68</t>
+          <t>9.33</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>142.92</t>
+          <t>145.92</t>
         </is>
       </c>
     </row>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>109.33</t>
+          <t>110.35</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>425.51</t>
+          <t>427.83</t>
         </is>
       </c>
     </row>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>464.51</t>
+          <t>470.48</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>54.48</t>
         </is>
       </c>
     </row>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>7.68</t>
+          <t>20.18</t>
         </is>
       </c>
     </row>
@@ -2063,7 +2063,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>284.28</t>
+          <t>287.88</t>
         </is>
       </c>
     </row>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>715.72</t>
+          <t>728.38</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>473.38</t>
+          <t>474.4</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2143.11</t>
+          <t>2224.79</t>
         </is>
       </c>
     </row>
@@ -2495,7 +2495,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>33.74</t>
+          <t>38.76</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>441.64</t>
+          <t>444.46</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>372.21</t>
+          <t>393.42</t>
         </is>
       </c>
     </row>
@@ -2684,7 +2684,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>213.9</t>
+          <t>216.9</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>450.44</t>
+          <t>455.44</t>
         </is>
       </c>
     </row>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>538.95</t>
+          <t>558.36</t>
         </is>
       </c>
     </row>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1234.49</t>
+          <t>1240.65</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1282.56</t>
+          <t>1372.26</t>
         </is>
       </c>
     </row>
@@ -2819,7 +2819,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>836.51</t>
+          <t>842.51</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>71.64</t>
+          <t>76.64</t>
         </is>
       </c>
     </row>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>212.93</t>
+          <t>214.93</t>
         </is>
       </c>
     </row>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>473.09</t>
+          <t>486.51</t>
         </is>
       </c>
     </row>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>756.75</t>
+          <t>757.75</t>
         </is>
       </c>
     </row>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>1183.76</t>
+          <t>1365.88</t>
         </is>
       </c>
     </row>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>295.69</t>
+          <t>345.69</t>
         </is>
       </c>
     </row>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2231.48</t>
+          <t>2551.48</t>
         </is>
       </c>
     </row>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>1195.51</t>
+          <t>1522.21</t>
         </is>
       </c>
     </row>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>195.89</t>
+          <t>196.89</t>
         </is>
       </c>
     </row>
@@ -3170,7 +3170,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>588.79</t>
+          <t>593.79</t>
         </is>
       </c>
     </row>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>1540.04</t>
+          <t>1652.06</t>
         </is>
       </c>
     </row>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>373.85</t>
+          <t>1683.39</t>
         </is>
       </c>
     </row>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>230.82</t>
+          <t>245.32</t>
         </is>
       </c>
     </row>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>1194.72</t>
+          <t>1374.45</t>
         </is>
       </c>
     </row>
@@ -3440,7 +3440,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>49.71</t>
+          <t>65.71</t>
         </is>
       </c>
     </row>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>124.34</t>
+          <t>127.34</t>
         </is>
       </c>
     </row>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>101.5</t>
+          <t>104.8</t>
         </is>
       </c>
     </row>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>195.17</t>
+          <t>211.89</t>
         </is>
       </c>
     </row>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>573.21</t>
+          <t>598.41</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>462.55</t>
+          <t>476.02</t>
         </is>
       </c>
     </row>
@@ -3683,7 +3683,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>113.2</t>
+          <t>124.8</t>
         </is>
       </c>
     </row>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>474.86</t>
+          <t>517.36</t>
         </is>
       </c>
     </row>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>45.58</t>
+          <t>51.55</t>
         </is>
       </c>
     </row>
@@ -3764,7 +3764,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>533.38</t>
+          <t>842.98</t>
         </is>
       </c>
     </row>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>724.16</t>
+          <t>1034.38</t>
         </is>
       </c>
     </row>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>189.01</t>
+          <t>491.01</t>
         </is>
       </c>
     </row>
@@ -3899,7 +3899,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>35.1</t>
+          <t>36.1</t>
         </is>
       </c>
     </row>
@@ -3953,7 +3953,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>456.36</t>
+          <t>457.38</t>
         </is>
       </c>
     </row>
@@ -3980,7 +3980,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>174.92</t>
+          <t>185.92</t>
         </is>
       </c>
     </row>
@@ -4034,7 +4034,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>385.77</t>
+          <t>386.79</t>
         </is>
       </c>
     </row>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>47.55</t>
+          <t>247.55</t>
         </is>
       </c>
     </row>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>1150.89</t>
+          <t>1152.39</t>
         </is>
       </c>
     </row>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>169.63</t>
+          <t>171.63</t>
         </is>
       </c>
     </row>
@@ -4196,7 +4196,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>9.5</t>
         </is>
       </c>
     </row>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>65.11</t>
+          <t>73.71</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>31.75</t>
+          <t>35.75</t>
         </is>
       </c>
     </row>
@@ -4277,7 +4277,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>176.37</t>
+          <t>188.52</t>
         </is>
       </c>
     </row>
@@ -4304,7 +4304,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>514.96</t>
+          <t>519.96</t>
         </is>
       </c>
     </row>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>632.27</t>
+          <t>656.31</t>
         </is>
       </c>
     </row>
@@ -4358,7 +4358,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>13.1</t>
         </is>
       </c>
     </row>
@@ -4412,7 +4412,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>444.86</t>
+          <t>448.46</t>
         </is>
       </c>
     </row>
@@ -4439,7 +4439,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>1245.86</t>
+          <t>1254.42</t>
         </is>
       </c>
     </row>
@@ -4466,7 +4466,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>1797.16</t>
+          <t>1806.61</t>
         </is>
       </c>
     </row>
@@ -4493,7 +4493,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>1791.2</t>
+          <t>1792.3</t>
         </is>
       </c>
     </row>
@@ -4520,7 +4520,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>77.97</t>
+          <t>78.99</t>
         </is>
       </c>
     </row>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>645.19</t>
+          <t>667.87</t>
         </is>
       </c>
     </row>
@@ -4574,7 +4574,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>476.48</t>
+          <t>483.48</t>
         </is>
       </c>
     </row>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>773.01</t>
+          <t>774.03</t>
         </is>
       </c>
     </row>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>76.7</t>
+          <t>101.7</t>
         </is>
       </c>
     </row>
@@ -4682,7 +4682,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>1219.95</t>
+          <t>1221.09</t>
         </is>
       </c>
     </row>
@@ -4709,7 +4709,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>458.24</t>
+          <t>758.24</t>
         </is>
       </c>
     </row>
@@ -4736,7 +4736,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>32.28</t>
+          <t>37.28</t>
         </is>
       </c>
     </row>
@@ -4790,7 +4790,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>19.75</t>
+          <t>89.75</t>
         </is>
       </c>
     </row>
@@ -4817,7 +4817,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>717.0</t>
+          <t>718.2</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>584.43</t>
+          <t>1113.43</t>
         </is>
       </c>
     </row>
@@ -4898,7 +4898,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>6.64</t>
+          <t>9.72</t>
         </is>
       </c>
     </row>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>710.31</t>
+          <t>717.95</t>
         </is>
       </c>
     </row>
@@ -5114,7 +5114,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>197.21</t>
+          <t>198.23</t>
         </is>
       </c>
     </row>
@@ -5141,7 +5141,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>498.88</t>
+          <t>501.84</t>
         </is>
       </c>
     </row>
@@ -5195,7 +5195,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>1827.96</t>
+          <t>1835.34</t>
         </is>
       </c>
     </row>
@@ -5249,7 +5249,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>225.52</t>
+          <t>232.52</t>
         </is>
       </c>
     </row>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>405.28</t>
+          <t>406.72</t>
         </is>
       </c>
     </row>
@@ -5384,7 +5384,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>1099.36</t>
+          <t>1109.34</t>
         </is>
       </c>
     </row>
@@ -5411,7 +5411,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>253.75</t>
+          <t>273.75</t>
         </is>
       </c>
     </row>
@@ -5438,7 +5438,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>866.22</t>
+          <t>881.12</t>
         </is>
       </c>
     </row>
@@ -5465,7 +5465,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>485.73</t>
+          <t>492.72</t>
         </is>
       </c>
     </row>
@@ -5492,7 +5492,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>942.6</t>
+          <t>945.3</t>
         </is>
       </c>
     </row>
@@ -5519,7 +5519,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>693.05</t>
+          <t>693.95</t>
         </is>
       </c>
     </row>
@@ -5546,7 +5546,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>607.9</t>
+          <t>619.0</t>
         </is>
       </c>
     </row>
@@ -5573,7 +5573,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>12.46</t>
+          <t>13.96</t>
         </is>
       </c>
     </row>
@@ -5627,7 +5627,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>198.41</t>
+          <t>231.71</t>
         </is>
       </c>
     </row>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>1539.04</t>
+          <t>1579.49</t>
         </is>
       </c>
     </row>
@@ -5708,7 +5708,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>16.97</t>
+          <t>23.79</t>
         </is>
       </c>
     </row>
@@ -5762,7 +5762,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>24.76</t>
+          <t>27.27</t>
         </is>
       </c>
     </row>
@@ -5789,7 +5789,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>480.0</t>
+          <t>508.0</t>
         </is>
       </c>
     </row>
@@ -5843,7 +5843,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>187.01</t>
+          <t>188.47</t>
         </is>
       </c>
     </row>
@@ -5870,7 +5870,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>200.2</t>
+          <t>209.44</t>
         </is>
       </c>
     </row>
@@ -5897,7 +5897,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>899.64</t>
+          <t>907.27</t>
         </is>
       </c>
     </row>
@@ -5978,7 +5978,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>971.38</t>
+          <t>974.35</t>
         </is>
       </c>
     </row>
@@ -6032,7 +6032,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>181.14</t>
+          <t>184.14</t>
         </is>
       </c>
     </row>
@@ -6113,7 +6113,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>288.07</t>
+          <t>290.17</t>
         </is>
       </c>
     </row>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>537.19</t>
+          <t>553.72</t>
         </is>
       </c>
     </row>
@@ -6194,7 +6194,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>931.75</t>
+          <t>934.75</t>
         </is>
       </c>
     </row>
@@ -6221,7 +6221,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>717.57</t>
+          <t>740.39</t>
         </is>
       </c>
     </row>
@@ -6464,7 +6464,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>57.05</t>
+          <t>60.3</t>
         </is>
       </c>
     </row>
@@ -6518,7 +6518,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>113.27</t>
+          <t>117.77</t>
         </is>
       </c>
     </row>
@@ -6680,7 +6680,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>467.07</t>
+          <t>476.97</t>
         </is>
       </c>
     </row>
@@ -6815,7 +6815,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>117.1</t>
+          <t>128.86</t>
         </is>
       </c>
     </row>
@@ -6842,7 +6842,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>11.33</t>
+          <t>27.33</t>
         </is>
       </c>
     </row>
@@ -6977,7 +6977,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>2232.65</t>
+          <t>2664.04</t>
         </is>
       </c>
     </row>
@@ -7409,7 +7409,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>147.89</t>
+          <t>153.47</t>
         </is>
       </c>
     </row>
@@ -7571,7 +7571,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>60.17</t>
+          <t>60.92</t>
         </is>
       </c>
     </row>
@@ -7598,7 +7598,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>7.84</t>
         </is>
       </c>
     </row>
@@ -7733,7 +7733,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>8.23</t>
         </is>
       </c>
     </row>
@@ -7814,7 +7814,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>155.37</t>
+          <t>159.37</t>
         </is>
       </c>
     </row>
@@ -7922,7 +7922,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>390.83</t>
+          <t>390.84</t>
         </is>
       </c>
     </row>
@@ -7949,7 +7949,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>120.59</t>
+          <t>123.59</t>
         </is>
       </c>
     </row>
@@ -8003,7 +8003,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>121.88</t>
+          <t>121.89</t>
         </is>
       </c>
     </row>
@@ -8020,7 +8020,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Purranque</t>
+          <t>Puqueldón</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -8030,7 +8030,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>582.48</t>
+          <t>20.4</t>
         </is>
       </c>
     </row>
@@ -8047,7 +8047,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Quellón</t>
+          <t>Purranque</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -8057,7 +8057,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>582.48</t>
         </is>
       </c>
     </row>
@@ -8074,7 +8074,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Río Negro</t>
+          <t>Quellón</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -8084,7 +8084,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>498.07</t>
+          <t>6.0</t>
         </is>
       </c>
     </row>
@@ -8101,7 +8101,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>San Juan de la Costa</t>
+          <t>Río Negro</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -8111,7 +8111,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>102.34</t>
+          <t>498.07</t>
         </is>
       </c>
     </row>
@@ -8128,7 +8128,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>San Pablo</t>
+          <t>San Juan de la Costa</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -8138,7 +8138,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>8.71</t>
+          <t>104.34</t>
         </is>
       </c>
     </row>
@@ -8150,22 +8150,22 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>XI</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Aisén</t>
+          <t>San Pablo</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>8.71</t>
         </is>
       </c>
     </row>
@@ -8182,7 +8182,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Cochrane</t>
+          <t>Aisén</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -8192,7 +8192,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>4.39</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Coihaique</t>
+          <t>Cochrane</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -8219,7 +8219,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>62.93</t>
+          <t>27.0</t>
         </is>
       </c>
     </row>
@@ -8231,22 +8231,22 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>XII</t>
+          <t>XI</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Natales</t>
+          <t>Coihaique</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>34.45</t>
+          <t>62.93</t>
         </is>
       </c>
     </row>
@@ -8263,7 +8263,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Porvenir</t>
+          <t>Natales</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -8273,7 +8273,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>34.45</t>
         </is>
       </c>
     </row>
@@ -8290,7 +8290,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Punta Arenas</t>
+          <t>Porvenir</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -8300,7 +8300,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>101.34</t>
+          <t>50.0</t>
         </is>
       </c>
     </row>
@@ -8312,22 +8312,22 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>XIV</t>
+          <t>XII</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Corral</t>
+          <t>Punta Arenas</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>11.44</t>
+          <t>101.34</t>
         </is>
       </c>
     </row>
@@ -8344,7 +8344,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Futrono</t>
+          <t>Corral</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -8354,7 +8354,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>158.82</t>
+          <t>11.44</t>
         </is>
       </c>
     </row>
@@ -8371,7 +8371,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>La Unión</t>
+          <t>Futrono</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -8381,7 +8381,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>123.89</t>
+          <t>161.47</t>
         </is>
       </c>
     </row>
@@ -8398,7 +8398,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Lago Ranco</t>
+          <t>La Unión</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -8408,7 +8408,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>9.22</t>
+          <t>132.09</t>
         </is>
       </c>
     </row>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Lanco</t>
+          <t>Lago Ranco</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -8435,7 +8435,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>9.22</t>
         </is>
       </c>
     </row>
@@ -8452,7 +8452,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Los Lagos</t>
+          <t>Lanco</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -8462,7 +8462,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>212.09</t>
+          <t>1.5</t>
         </is>
       </c>
     </row>
@@ -8479,7 +8479,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Mariquina</t>
+          <t>Los Lagos</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -8489,7 +8489,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>49.01</t>
+          <t>212.09</t>
         </is>
       </c>
     </row>
@@ -8506,7 +8506,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Máfil</t>
+          <t>Mariquina</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -8516,7 +8516,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>96.05</t>
+          <t>50.03</t>
         </is>
       </c>
     </row>
@@ -8533,7 +8533,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Paillaco</t>
+          <t>Máfil</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -8543,7 +8543,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>16.04</t>
+          <t>96.8</t>
         </is>
       </c>
     </row>
@@ -8560,7 +8560,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Panguipulli</t>
+          <t>Paillaco</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -8570,7 +8570,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>696.37</t>
+          <t>16.04</t>
         </is>
       </c>
     </row>
@@ -8587,7 +8587,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Río Bueno</t>
+          <t>Panguipulli</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -8597,7 +8597,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>174.32</t>
+          <t>697.87</t>
         </is>
       </c>
     </row>
@@ -8614,7 +8614,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Valdivia</t>
+          <t>Río Bueno</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>240.22</t>
+          <t>177.33</t>
         </is>
       </c>
     </row>
@@ -8636,22 +8636,22 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>XV</t>
+          <t>XIV</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Arica</t>
+          <t>Valdivia</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>643.6</t>
+          <t>245.22</t>
         </is>
       </c>
     </row>
@@ -8668,7 +8668,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Camarones</t>
+          <t>Arica</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -8678,7 +8678,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>25.8</t>
+          <t>661.55</t>
         </is>
       </c>
     </row>
@@ -8690,22 +8690,22 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>XVI</t>
+          <t>XV</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Bulnes</t>
+          <t>Camarones</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>232.4</t>
+          <t>25.8</t>
         </is>
       </c>
     </row>
@@ -8722,7 +8722,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Bulnes</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -8732,7 +8732,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>915.3</t>
+          <t>232.4</t>
         </is>
       </c>
     </row>
@@ -8749,7 +8749,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Chillán Viejo</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -8759,7 +8759,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>125.35</t>
+          <t>931.19</t>
         </is>
       </c>
     </row>
@@ -8776,7 +8776,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Cobquecura</t>
+          <t>Chillán Viejo</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -8786,7 +8786,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>40.92</t>
+          <t>125.35</t>
         </is>
       </c>
     </row>
@@ -8803,7 +8803,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Coelemu</t>
+          <t>Cobquecura</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -8813,7 +8813,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>22.65</t>
+          <t>40.92</t>
         </is>
       </c>
     </row>
@@ -8830,7 +8830,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Coihueco</t>
+          <t>Coelemu</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -8840,7 +8840,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>101.9</t>
+          <t>22.65</t>
         </is>
       </c>
     </row>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>El Carmen</t>
+          <t>Coihueco</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -8867,7 +8867,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>43.09</t>
+          <t>106.4</t>
         </is>
       </c>
     </row>
@@ -8884,7 +8884,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Ninhue</t>
+          <t>El Carmen</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -8894,7 +8894,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>45.02</t>
         </is>
       </c>
     </row>
@@ -8911,7 +8911,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Pemuco</t>
+          <t>Ninhue</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -8921,7 +8921,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>14.76</t>
         </is>
       </c>
     </row>
@@ -8938,7 +8938,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Pinto</t>
+          <t>Pemuco</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -8948,7 +8948,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>35.89</t>
+          <t>5.5</t>
         </is>
       </c>
     </row>
@@ -8965,7 +8965,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Portezuelo</t>
+          <t>Pinto</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -8975,7 +8975,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>35.89</t>
         </is>
       </c>
     </row>
@@ -8992,7 +8992,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Quillón</t>
+          <t>Portezuelo</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -9002,7 +9002,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>177.03</t>
+          <t>6.31</t>
         </is>
       </c>
     </row>
@@ -9019,7 +9019,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Quirihue</t>
+          <t>Quillón</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -9029,7 +9029,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>182.03</t>
         </is>
       </c>
     </row>
@@ -9046,7 +9046,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Ránquil</t>
+          <t>Quirihue</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -9056,7 +9056,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>9.02</t>
         </is>
       </c>
     </row>
@@ -9073,7 +9073,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>San Carlos</t>
+          <t>Ránquil</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -9083,7 +9083,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>583.23</t>
+          <t>14.96</t>
         </is>
       </c>
     </row>
@@ -9100,7 +9100,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>San Fabián</t>
+          <t>San Carlos</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -9110,7 +9110,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>588.23</t>
         </is>
       </c>
     </row>
@@ -9127,7 +9127,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>San Ignacio</t>
+          <t>San Fabián</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -9137,7 +9137,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>12.24</t>
+          <t>1.5</t>
         </is>
       </c>
     </row>
@@ -9154,7 +9154,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>San Nicolás</t>
+          <t>San Ignacio</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -9164,7 +9164,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>17.21</t>
+          <t>15.49</t>
         </is>
       </c>
     </row>
@@ -9181,7 +9181,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Treguaco</t>
+          <t>San Nicolás</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -9191,7 +9191,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>17.21</t>
         </is>
       </c>
     </row>
@@ -9208,7 +9208,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Yungay</t>
+          <t>Treguaco</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -9218,7 +9218,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>39.94</t>
+          <t>8.8</t>
         </is>
       </c>
     </row>
@@ -9235,15 +9235,42 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
+          <t>Yungay</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>41.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Solar Fotovoltaica</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>XVI</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
           <t>Ñiquén</t>
         </is>
       </c>
-      <c r="D329" t="inlineStr">
+      <c r="D330" t="inlineStr">
         <is>
           <t>11.0</t>
         </is>
       </c>
-      <c r="E329" t="inlineStr">
+      <c r="E330" t="inlineStr">
         <is>
           <t>156.43</t>
         </is>

--- a/pequenos-medios-de-generacion-distribuida_v1_netbilling.xlsx
+++ b/pequenos-medios-de-generacion-distribuida_v1_netbilling.xlsx
@@ -848,7 +848,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>159.77</t>
+          <t>166.77</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>488.54</t>
+          <t>503.38</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>128.15</t>
+          <t>130.65</t>
         </is>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>60.73</t>
+          <t>62.07</t>
         </is>
       </c>
     </row>
@@ -2063,7 +2063,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>287.88</t>
+          <t>298.88</t>
         </is>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>12.7</t>
         </is>
       </c>
     </row>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>178.96</t>
+          <t>180.46</t>
         </is>
       </c>
     </row>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>728.38</t>
+          <t>734.98</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2224.79</t>
+          <t>2243.99</t>
         </is>
       </c>
     </row>
@@ -2603,7 +2603,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>821.54</t>
+          <t>826.54</t>
         </is>
       </c>
     </row>
@@ -2630,7 +2630,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>35.42</t>
+          <t>41.02</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>393.42</t>
+          <t>634.42</t>
         </is>
       </c>
     </row>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>558.36</t>
+          <t>561.56</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1372.26</t>
+          <t>1389.82</t>
         </is>
       </c>
     </row>
@@ -2819,7 +2819,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>842.51</t>
+          <t>850.51</t>
         </is>
       </c>
     </row>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>486.51</t>
+          <t>488.44</t>
         </is>
       </c>
     </row>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2551.48</t>
+          <t>2556.48</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>19.5</t>
+          <t>23.1</t>
         </is>
       </c>
     </row>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>1652.06</t>
+          <t>1655.62</t>
         </is>
       </c>
     </row>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>1683.39</t>
+          <t>1840.07</t>
         </is>
       </c>
     </row>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>1374.45</t>
+          <t>1378.65</t>
         </is>
       </c>
     </row>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>211.89</t>
+          <t>214.69</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>476.02</t>
+          <t>480.97</t>
         </is>
       </c>
     </row>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>517.36</t>
+          <t>533.86</t>
         </is>
       </c>
     </row>
@@ -3764,7 +3764,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>842.98</t>
+          <t>852.08</t>
         </is>
       </c>
     </row>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>1034.38</t>
+          <t>1044.38</t>
         </is>
       </c>
     </row>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>171.63</t>
+          <t>173.63</t>
         </is>
       </c>
     </row>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>73.71</t>
+          <t>98.71</t>
         </is>
       </c>
     </row>
@@ -4304,7 +4304,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>519.96</t>
+          <t>525.96</t>
         </is>
       </c>
     </row>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>656.31</t>
+          <t>662.31</t>
         </is>
       </c>
     </row>
@@ -4358,7 +4358,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>13.1</t>
+          <t>18.1</t>
         </is>
       </c>
     </row>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>667.87</t>
+          <t>669.37</t>
         </is>
       </c>
     </row>
@@ -4574,7 +4574,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>483.48</t>
+          <t>486.28</t>
         </is>
       </c>
     </row>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>774.03</t>
+          <t>779.03</t>
         </is>
       </c>
     </row>
@@ -4925,7 +4925,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>551.46</t>
+          <t>552.56</t>
         </is>
       </c>
     </row>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>717.95</t>
+          <t>726.6</t>
         </is>
       </c>
     </row>
@@ -5006,7 +5006,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>1285.6</t>
+          <t>1339.1</t>
         </is>
       </c>
     </row>
@@ -5168,7 +5168,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>13.86</t>
+          <t>15.36</t>
         </is>
       </c>
     </row>
@@ -5303,7 +5303,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>159.11</t>
+          <t>173.87</t>
         </is>
       </c>
     </row>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>406.72</t>
+          <t>408.22</t>
         </is>
       </c>
     </row>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>1579.49</t>
+          <t>1584.09</t>
         </is>
       </c>
     </row>
@@ -5708,7 +5708,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>23.79</t>
+          <t>24.8</t>
         </is>
       </c>
     </row>
@@ -5789,7 +5789,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>508.0</t>
+          <t>512.0</t>
         </is>
       </c>
     </row>
@@ -5816,7 +5816,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>521.75</t>
+          <t>521.74</t>
         </is>
       </c>
     </row>
@@ -5924,7 +5924,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>202.19</t>
+          <t>355.19</t>
         </is>
       </c>
     </row>
@@ -6221,7 +6221,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>740.39</t>
+          <t>775.66</t>
         </is>
       </c>
     </row>
@@ -6248,7 +6248,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>826.84</t>
+          <t>831.84</t>
         </is>
       </c>
     </row>
@@ -6518,7 +6518,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>117.77</t>
+          <t>125.01</t>
         </is>
       </c>
     </row>
@@ -6842,7 +6842,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>27.33</t>
+          <t>28.13</t>
         </is>
       </c>
     </row>
@@ -6869,7 +6869,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>15.78</t>
         </is>
       </c>
     </row>
@@ -6977,7 +6977,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>2664.04</t>
+          <t>2686.92</t>
         </is>
       </c>
     </row>
@@ -7409,7 +7409,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>153.47</t>
+          <t>154.87</t>
         </is>
       </c>
     </row>
@@ -7517,7 +7517,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>50.96</t>
         </is>
       </c>
     </row>
@@ -7922,7 +7922,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>390.84</t>
+          <t>392.69</t>
         </is>
       </c>
     </row>
@@ -7949,7 +7949,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>123.59</t>
+          <t>132.59</t>
         </is>
       </c>
     </row>
@@ -8516,7 +8516,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>50.03</t>
+          <t>54.63</t>
         </is>
       </c>
     </row>
@@ -8651,7 +8651,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>245.22</t>
+          <t>248.22</t>
         </is>
       </c>
     </row>
@@ -8759,7 +8759,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>931.19</t>
+          <t>939.19</t>
         </is>
       </c>
     </row>
@@ -8921,7 +8921,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>14.76</t>
+          <t>15.86</t>
         </is>
       </c>
     </row>
@@ -9029,7 +9029,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>182.03</t>
+          <t>183.04</t>
         </is>
       </c>
     </row>
